--- a/data/trans_bre/P08_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P08_2_R-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>11.65915875328551</v>
+        <v>11.69106658751388</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>11.68747418133951</v>
+        <v>11.33166262413968</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10.42114302736059</v>
+        <v>10.62739814820155</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14.62472503230164</v>
+        <v>14.6337215075116</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3613624404887708</v>
+        <v>0.3731358283149404</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3258759423186091</v>
+        <v>0.3212919304660845</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2929357442999028</v>
+        <v>0.2954755803001982</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.3943734214709274</v>
+        <v>0.3916375031501136</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>19.66400763847694</v>
+        <v>19.70464566960202</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>19.70739100384661</v>
+        <v>19.4965600441403</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19.75838868737958</v>
+        <v>20.01772725451417</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24.04114640638062</v>
+        <v>23.99664011421656</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7190196923694065</v>
+        <v>0.7178312362920003</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6338148343634641</v>
+        <v>0.6418258986843952</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6273621708789275</v>
+        <v>0.6475404332994851</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.7901026323296039</v>
+        <v>0.7841151939971066</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>4.389715104534442</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.706316366856623</v>
+        <v>2.706316366856618</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2894157438101446</v>
@@ -749,7 +749,7 @@
         <v>0.4654109821103191</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2127989506707487</v>
+        <v>0.2127989506707483</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03701479996849708</v>
+        <v>0.05637833282177556</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.569057960465889</v>
+        <v>1.436798197068289</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.312598454635236</v>
+        <v>2.252665928428738</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.796154828269654</v>
+        <v>0.7421653084709265</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.004905378753474278</v>
+        <v>-0.003078552625211319</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1581478129318316</v>
+        <v>0.1425471477198331</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2261384500114946</v>
+        <v>0.2148508912659098</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.06086295169468699</v>
+        <v>0.05298641788963951</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.767125241301994</v>
+        <v>3.699122094229089</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.77474424183534</v>
+        <v>6.0126446146762</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.520005604867967</v>
+        <v>6.412644992914316</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.571603866640491</v>
+        <v>4.581984696589543</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6419988252061091</v>
+        <v>0.6202148582447864</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7351397210295357</v>
+        <v>0.7657106320524987</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7821253578234197</v>
+        <v>0.7433440334041437</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.403927116932206</v>
+        <v>0.3957602664216305</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.6382140051640215</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.91729103749226</v>
+        <v>2.917291037492257</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6249972772513596</v>
@@ -849,7 +849,7 @@
         <v>0.08179816583326999</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.4238254162804143</v>
+        <v>0.4238254162804138</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2857432513880932</v>
+        <v>0.4174384802229835</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.025212679612394</v>
+        <v>-2.836769597068455</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.512549251672549</v>
+        <v>-2.965742570662586</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.253962090906491</v>
+        <v>0.3279064337524663</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.001652347783023212</v>
+        <v>0.02335830840368976</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3391761766988688</v>
+        <v>-0.3008177201793488</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3485251194675167</v>
+        <v>-0.321574466579222</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.02567383283114636</v>
+        <v>0.03596581559988397</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.867522991673469</v>
+        <v>7.367180939990892</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.325165738222923</v>
+        <v>4.295511275837359</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.036345196714803</v>
+        <v>4.046390288255194</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.453087639020256</v>
+        <v>5.442686129065422</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.66932933347026</v>
+        <v>1.580464888376861</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.789842885485544</v>
+        <v>0.8170716645813474</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.645516594953462</v>
+        <v>0.6459036578785625</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.9872461969802551</v>
+        <v>0.9678669250574514</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>8.302011609922591</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7.692576456681113</v>
+        <v>7.692576456681103</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6693104238200496</v>
@@ -949,7 +949,7 @@
         <v>0.5699616668421088</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.51177387412458</v>
+        <v>0.511773874124579</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.439256752469781</v>
+        <v>7.54389862013191</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>8.251426824497496</v>
+        <v>8.146233089187909</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.305870088346555</v>
+        <v>6.465498586954928</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6.012602931379194</v>
+        <v>6.074943181028464</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5049679638979461</v>
+        <v>0.508935301614335</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.499010692992725</v>
+        <v>0.4951515793467478</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4087450245238151</v>
+        <v>0.4150825914207216</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3794140132557062</v>
+        <v>0.3718669241623873</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>11.00858886029151</v>
+        <v>11.2264377045655</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>12.13880294530565</v>
+        <v>12.20292606031601</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.25565898525416</v>
+        <v>9.993033079248114</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9.249766628926112</v>
+        <v>9.237941465122072</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8468909272518287</v>
+        <v>0.8542660554737598</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8253170422882776</v>
+        <v>0.8377911656709389</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7459051495771833</v>
+        <v>0.7310708832734193</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6589978389941896</v>
+        <v>0.6533333277666321</v>
       </c>
     </row>
     <row r="16">
